--- a/Instances/09_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/09_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -8349,13 +8349,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="D2" t="n">
         <v>0.008991999999999998</v>
       </c>
       <c r="E2" t="n">
-        <v>0.027264</v>
+        <v>0.209592</v>
       </c>
       <c r="F2" t="n">
         <v>0.03596799999999999</v>
@@ -8383,13 +8383,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="D3" t="n">
         <v>0.009039999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.167992</v>
+        <v>0.108232</v>
       </c>
       <c r="F3" t="n">
         <v>0.03616</v>
@@ -8417,13 +8417,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="D4" t="n">
         <v>0.008931999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02016</v>
+        <v>0.06854400000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.035728</v>
@@ -8451,13 +8451,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
         <v>0.009043999999999998</v>
       </c>
       <c r="E5" t="n">
-        <v>0.076608</v>
+        <v>0.146496</v>
       </c>
       <c r="F5" t="n">
         <v>0.03617599999999999</v>
@@ -8485,13 +8485,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3693</v>
+        <v>1628</v>
       </c>
       <c r="D6" t="n">
         <v>0.009264</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9750719999999999</v>
+        <v>0.956928</v>
       </c>
       <c r="F6" t="n">
         <v>0.037056</v>
@@ -8519,13 +8519,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1217</v>
+        <v>893</v>
       </c>
       <c r="D7" t="n">
         <v>0.009252</v>
       </c>
       <c r="E7" t="n">
-        <v>0.669384</v>
+        <v>1.0206</v>
       </c>
       <c r="F7" t="n">
         <v>0.037008</v>
@@ -8553,13 +8553,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>674</v>
+        <v>1064</v>
       </c>
       <c r="D8" t="n">
         <v>0.009172</v>
       </c>
       <c r="E8" t="n">
-        <v>0.268888</v>
+        <v>0.43432</v>
       </c>
       <c r="F8" t="n">
         <v>0.036688</v>
@@ -8587,13 +8587,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1590</v>
+        <v>125</v>
       </c>
       <c r="D9" t="n">
         <v>0.009216</v>
       </c>
       <c r="E9" t="n">
-        <v>0.444096</v>
+        <v>0.288576</v>
       </c>
       <c r="F9" t="n">
         <v>0.036864</v>
@@ -8621,13 +8621,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>654</v>
+        <v>1785</v>
       </c>
       <c r="D10" t="n">
         <v>0.009128000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1036</v>
+        <v>0.4468</v>
       </c>
       <c r="F10" t="n">
         <v>0.036512</v>
@@ -8655,13 +8655,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1748</v>
+        <v>1520</v>
       </c>
       <c r="D11" t="n">
         <v>0.009212</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5288080000000001</v>
+        <v>0.71852</v>
       </c>
       <c r="F11" t="n">
         <v>0.036848</v>
@@ -8689,13 +8689,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>401</v>
+        <v>1381</v>
       </c>
       <c r="D12" t="n">
         <v>0.009220000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.185712</v>
+        <v>0.526184</v>
       </c>
       <c r="F12" t="n">
         <v>0.03688</v>
@@ -8723,13 +8723,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2416</v>
+        <v>3390</v>
       </c>
       <c r="D13" t="n">
         <v>0.009228</v>
       </c>
       <c r="E13" t="n">
-        <v>1.1292</v>
+        <v>1.266</v>
       </c>
       <c r="F13" t="n">
         <v>0.036912</v>
@@ -8757,13 +8757,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>547</v>
+        <v>823</v>
       </c>
       <c r="D14" t="n">
         <v>0.009128000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1072</v>
+        <v>0.2824</v>
       </c>
       <c r="F14" t="n">
         <v>0.036512</v>
@@ -8791,13 +8791,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2174</v>
+        <v>4604</v>
       </c>
       <c r="D15" t="n">
         <v>0.009188</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9266400000000001</v>
+        <v>1.43624</v>
       </c>
       <c r="F15" t="n">
         <v>0.036752</v>
@@ -8825,13 +8825,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2172</v>
+        <v>1282</v>
       </c>
       <c r="D16" t="n">
         <v>0.009244</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6730800000000001</v>
+        <v>1.233032</v>
       </c>
       <c r="F16" t="n">
         <v>0.036976</v>
@@ -8859,13 +8859,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>181</v>
+        <v>1401</v>
       </c>
       <c r="D17" t="n">
         <v>0.009044</v>
       </c>
       <c r="E17" t="n">
-        <v>0.160776</v>
+        <v>0.405328</v>
       </c>
       <c r="F17" t="n">
         <v>0.036176</v>
@@ -8893,13 +8893,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2067</v>
+        <v>3942</v>
       </c>
       <c r="D18" t="n">
         <v>0.009076000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.58684</v>
+        <v>1.01864</v>
       </c>
       <c r="F18" t="n">
         <v>0.036304</v>
@@ -8927,13 +8927,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1724</v>
+        <v>2167</v>
       </c>
       <c r="D19" t="n">
         <v>0.009028000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.387776</v>
+        <v>0.635976</v>
       </c>
       <c r="F19" t="n">
         <v>0.03611200000000001</v>
@@ -8961,13 +8961,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2678</v>
+        <v>1112</v>
       </c>
       <c r="D20" t="n">
         <v>0.008984000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5411360000000001</v>
+        <v>0.92752</v>
       </c>
       <c r="F20" t="n">
         <v>0.035936</v>
@@ -8995,13 +8995,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>51</v>
+        <v>418</v>
       </c>
       <c r="D21" t="n">
         <v>0.009012000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05796</v>
+        <v>0.43608</v>
       </c>
       <c r="F21" t="n">
         <v>0.036048</v>
@@ -9029,13 +9029,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1184</v>
+        <v>735</v>
       </c>
       <c r="D22" t="n">
         <v>0.009040000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.380608</v>
+        <v>0.621376</v>
       </c>
       <c r="F22" t="n">
         <v>0.03616</v>
@@ -9063,13 +9063,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2357</v>
+        <v>105</v>
       </c>
       <c r="D23" t="n">
         <v>0.009036000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8286000000000001</v>
+        <v>1.5594</v>
       </c>
       <c r="F23" t="n">
         <v>0.036144</v>
@@ -9097,13 +9097,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1506</v>
+        <v>587</v>
       </c>
       <c r="D24" t="n">
         <v>0.009056000000000002</v>
       </c>
       <c r="E24" t="n">
-        <v>0.41344</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="F24" t="n">
         <v>0.03622400000000001</v>
@@ -9131,13 +9131,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>832</v>
+        <v>614</v>
       </c>
       <c r="D25" t="n">
         <v>0.00906</v>
       </c>
       <c r="E25" t="n">
-        <v>0.18144</v>
+        <v>0.533952</v>
       </c>
       <c r="F25" t="n">
         <v>0.03624</v>
@@ -9165,13 +9165,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>194</v>
+        <v>783</v>
       </c>
       <c r="D26" t="n">
         <v>0.009064000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.246</v>
+        <v>0.573344</v>
       </c>
       <c r="F26" t="n">
         <v>0.036256</v>
@@ -9199,13 +9199,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>210</v>
+        <v>698</v>
       </c>
       <c r="D27" t="n">
         <v>0.008972000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.046728</v>
+        <v>0.216176</v>
       </c>
       <c r="F27" t="n">
         <v>0.035888</v>
@@ -9239,7 +9239,7 @@
         <v>0.0007160000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>3.157808000000001</v>
+        <v>5.365808</v>
       </c>
       <c r="F28" t="n">
         <v>0.002864</v>
@@ -9273,7 +9273,7 @@
         <v>0.008707999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.27232</v>
+        <v>0.5345759999999999</v>
       </c>
       <c r="F29" t="n">
         <v>0.03483199999999999</v>
@@ -9307,7 +9307,7 @@
         <v>0.008928</v>
       </c>
       <c r="E30" t="n">
-        <v>8.826216000000001</v>
+        <v>13.012912</v>
       </c>
       <c r="F30" t="n">
         <v>0.035712</v>
@@ -9341,7 +9341,7 @@
         <v>0.008736000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>6.544384000000001</v>
+        <v>13.370368</v>
       </c>
       <c r="F31" t="n">
         <v>0.034944</v>
@@ -9369,13 +9369,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>38841</v>
+        <v>36228</v>
       </c>
       <c r="D32" t="n">
         <v>7.2e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>2.471328</v>
+        <v>4.199328</v>
       </c>
       <c r="F32" t="n">
         <v>0.000288</v>
@@ -9403,13 +9403,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>38841</v>
+        <v>36228</v>
       </c>
       <c r="D33" t="n">
         <v>0.00018</v>
       </c>
       <c r="E33" t="n">
-        <v>6.17832</v>
+        <v>10.49832</v>
       </c>
       <c r="F33" t="n">
         <v>0.00072</v>
@@ -9437,13 +9437,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>38841</v>
+        <v>36228</v>
       </c>
       <c r="D34" t="n">
         <v>0.000132</v>
       </c>
       <c r="E34" t="n">
-        <v>4.530768</v>
+        <v>7.698768</v>
       </c>
       <c r="F34" t="n">
         <v>0.000528</v>
@@ -9471,13 +9471,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>38841</v>
+        <v>36228</v>
       </c>
       <c r="D35" t="n">
         <v>3.200000000000001e-05</v>
       </c>
       <c r="E35" t="n">
-        <v>1.098368</v>
+        <v>1.866368</v>
       </c>
       <c r="F35" t="n">
         <v>0.000128</v>
@@ -9505,13 +9505,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>38841</v>
+        <v>36228</v>
       </c>
       <c r="D36" t="n">
         <v>3.6e-05</v>
       </c>
       <c r="E36" t="n">
-        <v>1.235664</v>
+        <v>2.099664</v>
       </c>
       <c r="F36" t="n">
         <v>0.000144</v>
@@ -9539,13 +9539,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>38841</v>
+        <v>36228</v>
       </c>
       <c r="D37" t="n">
         <v>0.000172</v>
       </c>
       <c r="E37" t="n">
-        <v>5.903728</v>
+        <v>10.031728</v>
       </c>
       <c r="F37" t="n">
         <v>0.000688</v>
@@ -9579,7 +9579,7 @@
         <v>0.007444</v>
       </c>
       <c r="E38" t="n">
-        <v>160.358648</v>
+        <v>239.77124</v>
       </c>
       <c r="F38" t="n">
         <v>0.029776</v>
@@ -9613,7 +9613,7 @@
         <v>0.007208</v>
       </c>
       <c r="E39" t="n">
-        <v>92.132656</v>
+        <v>188.229712</v>
       </c>
       <c r="F39" t="n">
         <v>0.028832</v>
@@ -9641,13 +9641,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>670</v>
+        <v>909</v>
       </c>
       <c r="D40" t="n">
         <v>0.000104</v>
       </c>
       <c r="E40" t="n">
-        <v>0.09568</v>
+        <v>0.187824</v>
       </c>
       <c r="F40" t="n">
         <v>0.000416</v>
@@ -9675,13 +9675,13 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>670</v>
+        <v>909</v>
       </c>
       <c r="D41" t="n">
         <v>0.000136</v>
       </c>
       <c r="E41" t="n">
-        <v>0.12512</v>
+        <v>0.2456160000000001</v>
       </c>
       <c r="F41" t="n">
         <v>0.0005440000000000001</v>
@@ -9709,13 +9709,13 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>38841</v>
+        <v>36228</v>
       </c>
       <c r="D42" t="n">
         <v>1.2e-05</v>
       </c>
       <c r="E42" t="n">
-        <v>0.411888</v>
+        <v>0.6998880000000001</v>
       </c>
       <c r="F42" t="n">
         <v>4.8e-05</v>
@@ -9743,13 +9743,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>22867</v>
+        <v>21878</v>
       </c>
       <c r="D43" t="n">
         <v>2.4e-05</v>
       </c>
       <c r="E43" t="n">
-        <v>0.494928</v>
+        <v>0.729696</v>
       </c>
       <c r="F43" t="n">
         <v>9.6e-05</v>
@@ -9777,13 +9777,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>22867</v>
+        <v>21878</v>
       </c>
       <c r="D44" t="n">
         <v>0.000128</v>
       </c>
       <c r="E44" t="n">
-        <v>2.639616000000001</v>
+        <v>3.891712000000001</v>
       </c>
       <c r="F44" t="n">
         <v>0.0005120000000000001</v>
@@ -9811,13 +9811,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>38171</v>
+        <v>35319</v>
       </c>
       <c r="D45" t="n">
         <v>0.000176</v>
       </c>
       <c r="E45" t="n">
-        <v>5.879104000000001</v>
+        <v>9.947168000000001</v>
       </c>
       <c r="F45" t="n">
         <v>0.0007040000000000001</v>
@@ -9845,13 +9845,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>15304</v>
+        <v>13441</v>
       </c>
       <c r="D46" t="n">
         <v>2.4e-05</v>
       </c>
       <c r="E46" t="n">
-        <v>0.306768</v>
+        <v>0.6267360000000001</v>
       </c>
       <c r="F46" t="n">
         <v>9.6e-05</v>
@@ -9879,13 +9879,13 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>15304</v>
+        <v>13441</v>
       </c>
       <c r="D47" t="n">
         <v>8.800000000000001e-05</v>
       </c>
       <c r="E47" t="n">
-        <v>1.124816</v>
+        <v>2.298032</v>
       </c>
       <c r="F47" t="n">
         <v>0.000352</v>
@@ -9913,7 +9913,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>23537</v>
+        <v>22787</v>
       </c>
       <c r="D48" t="n">
         <v>0.007444</v>
@@ -9947,7 +9947,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>38841</v>
+        <v>36228</v>
       </c>
       <c r="D49" t="n">
         <v>0.0007160000000000001</v>
@@ -9981,7 +9981,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>15304</v>
+        <v>13441</v>
       </c>
       <c r="D50" t="n">
         <v>0.007208</v>
@@ -10016,7 +10016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX7"/>
+  <dimension ref="A1:AX12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10276,82 +10276,82 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c r="C2" t="n">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D2" t="n">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>1760</v>
+        <v>629</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>511</v>
+        <v>686</v>
       </c>
       <c r="I2" t="n">
-        <v>1109</v>
+        <v>125</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>983</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="M2" t="n">
-        <v>1873</v>
+        <v>1689</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>823</v>
       </c>
       <c r="O2" t="n">
-        <v>2134</v>
+        <v>1692</v>
       </c>
       <c r="P2" t="n">
-        <v>1295</v>
+        <v>355</v>
       </c>
       <c r="Q2" t="n">
-        <v>181</v>
+        <v>486</v>
       </c>
       <c r="R2" t="n">
-        <v>2067</v>
+        <v>2924</v>
       </c>
       <c r="S2" t="n">
-        <v>646</v>
+        <v>1398</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="V2" t="n">
-        <v>1184</v>
+        <v>735</v>
       </c>
       <c r="W2" t="n">
-        <v>1771</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>998</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>614</v>
       </c>
       <c r="Z2" t="n">
-        <v>194</v>
+        <v>342</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -10428,82 +10428,82 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="C3" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F3" t="n">
-        <v>1933</v>
+        <v>999</v>
       </c>
       <c r="G3" t="n">
-        <v>1217</v>
+        <v>893</v>
       </c>
       <c r="H3" t="n">
-        <v>163</v>
+        <v>378</v>
       </c>
       <c r="I3" t="n">
-        <v>481</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>654</v>
+        <v>802</v>
       </c>
       <c r="K3" t="n">
-        <v>1748</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>401</v>
+        <v>769</v>
       </c>
       <c r="M3" t="n">
-        <v>543</v>
+        <v>1701</v>
       </c>
       <c r="N3" t="n">
-        <v>547</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40</v>
+        <v>2912</v>
       </c>
       <c r="P3" t="n">
-        <v>877</v>
+        <v>927</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="S3" t="n">
-        <v>1078</v>
+        <v>769</v>
       </c>
       <c r="T3" t="n">
-        <v>2670</v>
+        <v>1112</v>
       </c>
       <c r="U3" t="n">
-        <v>51</v>
+        <v>332</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>586</v>
+        <v>105</v>
       </c>
       <c r="X3" t="n">
-        <v>508</v>
+        <v>587</v>
       </c>
       <c r="Y3" t="n">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="AA3" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -10580,10 +10580,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="C4" t="n">
-        <v>385</v>
+        <v>256</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -10592,70 +10592,70 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1256</v>
+        <v>1123</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156</v>
+        <v>460</v>
       </c>
       <c r="I4" t="n">
-        <v>253</v>
+        <v>420</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="K4" t="n">
-        <v>564</v>
+        <v>2061</v>
       </c>
       <c r="L4" t="n">
-        <v>784</v>
+        <v>718</v>
       </c>
       <c r="M4" t="n">
-        <v>2771</v>
+        <v>1185</v>
       </c>
       <c r="N4" t="n">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="O4" t="n">
-        <v>79</v>
+        <v>3038</v>
       </c>
       <c r="P4" t="n">
-        <v>920</v>
+        <v>272</v>
       </c>
       <c r="Q4" t="n">
-        <v>687</v>
+        <v>556</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>768</v>
+        <v>2261</v>
       </c>
       <c r="T4" t="n">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1062</v>
+        <v>1376</v>
       </c>
       <c r="W4" t="n">
-        <v>3022</v>
+        <v>3763</v>
       </c>
       <c r="X4" t="n">
-        <v>664</v>
+        <v>291</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="Z4" t="n">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="AA4" t="n">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -10732,82 +10732,82 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="C5" t="n">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="F5" t="n">
-        <v>1203</v>
+        <v>1811</v>
       </c>
       <c r="G5" t="n">
-        <v>3344</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1426</v>
+        <v>1377</v>
       </c>
       <c r="I5" t="n">
-        <v>1230</v>
+        <v>830</v>
       </c>
       <c r="J5" t="n">
-        <v>649</v>
+        <v>62</v>
       </c>
       <c r="K5" t="n">
-        <v>1017</v>
+        <v>2784</v>
       </c>
       <c r="L5" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2228</v>
+        <v>1151</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O5" t="n">
-        <v>3176</v>
+        <v>1541</v>
       </c>
       <c r="P5" t="n">
-        <v>1077</v>
+        <v>2410</v>
       </c>
       <c r="Q5" t="n">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2020</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1490</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="U5" t="n">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="V5" t="n">
-        <v>246</v>
+        <v>1783</v>
       </c>
       <c r="W5" t="n">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1204</v>
+        <v>398</v>
       </c>
       <c r="Y5" t="n">
-        <v>846</v>
+        <v>607</v>
       </c>
       <c r="Z5" t="n">
-        <v>612</v>
+        <v>581</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -10884,82 +10884,82 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="C6" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="E6" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1600</v>
+        <v>1323</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>522</v>
+        <v>1311</v>
       </c>
       <c r="I6" t="n">
-        <v>1433</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>247</v>
+        <v>765</v>
       </c>
       <c r="K6" t="n">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="M6" t="n">
-        <v>2222</v>
+        <v>826</v>
       </c>
       <c r="N6" t="n">
-        <v>653</v>
+        <v>742</v>
       </c>
       <c r="O6" t="n">
-        <v>3874</v>
+        <v>2313</v>
       </c>
       <c r="P6" t="n">
-        <v>1695</v>
+        <v>1355</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="R6" t="n">
-        <v>1086</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1474</v>
+        <v>2529</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>301</v>
+        <v>33</v>
       </c>
       <c r="W6" t="n">
-        <v>2498</v>
+        <v>1691</v>
       </c>
       <c r="X6" t="n">
-        <v>498</v>
+        <v>1245</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>326</v>
+        <v>710</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -11036,49 +11036,49 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="C7" t="n">
-        <v>539</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>950</v>
+        <v>563</v>
       </c>
       <c r="G7" t="n">
-        <v>1632</v>
+        <v>670</v>
       </c>
       <c r="H7" t="n">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>118</v>
+        <v>503</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>980</v>
+        <v>690</v>
       </c>
       <c r="L7" t="n">
-        <v>379</v>
+        <v>1350</v>
       </c>
       <c r="M7" t="n">
-        <v>1654</v>
+        <v>1942</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1386</v>
+        <v>1121</v>
       </c>
       <c r="P7" t="n">
-        <v>522</v>
+        <v>4077</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -11087,31 +11087,31 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="T7" t="n">
-        <v>1778</v>
+        <v>3015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="V7" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="Z7" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -11180,6 +11180,766 @@
         <v>0</v>
       </c>
       <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>281</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>110</v>
+      </c>
+      <c r="E8" t="n">
+        <v>190</v>
+      </c>
+      <c r="F8" t="n">
+        <v>163</v>
+      </c>
+      <c r="G8" t="n">
+        <v>606</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1256</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>199</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1163</v>
+      </c>
+      <c r="N8" t="n">
+        <v>216</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>91</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1642</v>
+      </c>
+      <c r="S8" t="n">
+        <v>602</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1094</v>
+      </c>
+      <c r="U8" t="n">
+        <v>581</v>
+      </c>
+      <c r="V8" t="n">
+        <v>125</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2282</v>
+      </c>
+      <c r="X8" t="n">
+        <v>693</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>656</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>217</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>488</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>76</v>
+      </c>
+      <c r="E9" t="n">
+        <v>287</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>785</v>
+      </c>
+      <c r="J9" t="n">
+        <v>894</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>715</v>
+      </c>
+      <c r="N9" t="n">
+        <v>458</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3669</v>
+      </c>
+      <c r="P9" t="n">
+        <v>774</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>430</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>64</v>
+      </c>
+      <c r="U9" t="n">
+        <v>158</v>
+      </c>
+      <c r="V9" t="n">
+        <v>668</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4730</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1144</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>791</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>603</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>104</v>
+      </c>
+      <c r="C10" t="n">
+        <v>201</v>
+      </c>
+      <c r="D10" t="n">
+        <v>78</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F10" t="n">
+        <v>697</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3277</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1098</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>606</v>
+      </c>
+      <c r="K10" t="n">
+        <v>531</v>
+      </c>
+      <c r="L10" t="n">
+        <v>829</v>
+      </c>
+      <c r="M10" t="n">
+        <v>485</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1169</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2379</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3257</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>995</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1512</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1283</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1123</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>61</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>178</v>
+      </c>
+      <c r="C11" t="n">
+        <v>124</v>
+      </c>
+      <c r="D11" t="n">
+        <v>160</v>
+      </c>
+      <c r="E11" t="n">
+        <v>210</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1234</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2436</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>340</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1028</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1544</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1056</v>
+      </c>
+      <c r="R11" t="n">
+        <v>287</v>
+      </c>
+      <c r="S11" t="n">
+        <v>987</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>707</v>
+      </c>
+      <c r="V11" t="n">
+        <v>65</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1510</v>
+      </c>
+      <c r="X11" t="n">
+        <v>580</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>669</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>236</v>
+      </c>
+      <c r="C12" t="n">
+        <v>212</v>
+      </c>
+      <c r="D12" t="n">
+        <v>112</v>
+      </c>
+      <c r="E12" t="n">
+        <v>258</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1567</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1147</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>748</v>
+      </c>
+      <c r="M12" t="n">
+        <v>770</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>285</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>738</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1165</v>
+      </c>
+      <c r="V12" t="n">
+        <v>347</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1529</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1112</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>384</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>561</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11194,7 +11954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX7"/>
+  <dimension ref="A1:AX12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11454,82 +12214,82 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>20.625</v>
       </c>
       <c r="C2" t="n">
-        <v>12.375</v>
+        <v>14.375</v>
       </c>
       <c r="D2" t="n">
-        <v>17.5</v>
+        <v>10.875</v>
       </c>
       <c r="E2" t="n">
-        <v>23.125</v>
+        <v>1.875</v>
       </c>
       <c r="F2" t="n">
-        <v>220</v>
+        <v>78.625</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>63.875</v>
+        <v>85.75</v>
       </c>
       <c r="I2" t="n">
-        <v>138.625</v>
+        <v>15.625</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>122.875</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>76.5</v>
       </c>
       <c r="M2" t="n">
-        <v>234.125</v>
+        <v>211.125</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>102.875</v>
       </c>
       <c r="O2" t="n">
-        <v>266.75</v>
+        <v>211.5</v>
       </c>
       <c r="P2" t="n">
-        <v>161.875</v>
+        <v>44.375</v>
       </c>
       <c r="Q2" t="n">
-        <v>22.625</v>
+        <v>60.75</v>
       </c>
       <c r="R2" t="n">
-        <v>258.375</v>
+        <v>365.5</v>
       </c>
       <c r="S2" t="n">
-        <v>80.75</v>
+        <v>174.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="V2" t="n">
-        <v>148</v>
+        <v>91.875</v>
       </c>
       <c r="W2" t="n">
-        <v>221.375</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>124.75</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.375</v>
+        <v>76.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>24.25</v>
+        <v>42.75</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>87.25</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -11606,82 +12366,82 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>37.875</v>
       </c>
       <c r="C3" t="n">
-        <v>30.1875</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14.625</v>
+        <v>18.9375</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>8.625</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4375</v>
+        <v>187.3125</v>
       </c>
       <c r="G3" t="n">
-        <v>228.1875</v>
+        <v>167.4375</v>
       </c>
       <c r="H3" t="n">
-        <v>30.5625</v>
+        <v>70.875</v>
       </c>
       <c r="I3" t="n">
-        <v>90.1875</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>122.625</v>
+        <v>150.375</v>
       </c>
       <c r="K3" t="n">
-        <v>327.75</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>75.1875</v>
+        <v>144.1875</v>
       </c>
       <c r="M3" t="n">
-        <v>101.8125</v>
+        <v>318.9375</v>
       </c>
       <c r="N3" t="n">
-        <v>102.5625</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.5</v>
+        <v>546</v>
       </c>
       <c r="P3" t="n">
-        <v>164.4375</v>
+        <v>173.8125</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>171.5625</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>190.875</v>
       </c>
       <c r="S3" t="n">
-        <v>202.125</v>
+        <v>144.1875</v>
       </c>
       <c r="T3" t="n">
-        <v>500.625</v>
+        <v>208.5</v>
       </c>
       <c r="U3" t="n">
-        <v>9.5625</v>
+        <v>62.25</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>109.875</v>
+        <v>19.6875</v>
       </c>
       <c r="X3" t="n">
-        <v>95.25</v>
+        <v>110.0625</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.4375</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>82.6875</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.375</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -11758,10 +12518,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>45.9375</v>
       </c>
       <c r="C4" t="n">
-        <v>84.21875</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -11770,70 +12530,70 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>274.75</v>
+        <v>245.65625</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>34.125</v>
+        <v>100.625</v>
       </c>
       <c r="I4" t="n">
-        <v>55.34375</v>
+        <v>91.875</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>40.6875</v>
       </c>
       <c r="K4" t="n">
-        <v>123.375</v>
+        <v>450.84375</v>
       </c>
       <c r="L4" t="n">
-        <v>171.5</v>
+        <v>157.0625</v>
       </c>
       <c r="M4" t="n">
-        <v>606.15625</v>
+        <v>259.21875</v>
       </c>
       <c r="N4" t="n">
-        <v>89.25</v>
+        <v>94.28125</v>
       </c>
       <c r="O4" t="n">
-        <v>17.28125</v>
+        <v>664.5625</v>
       </c>
       <c r="P4" t="n">
-        <v>201.25</v>
+        <v>59.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.28125</v>
+        <v>121.625</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168</v>
+        <v>494.59375</v>
       </c>
       <c r="T4" t="n">
-        <v>134.3125</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>232.3125</v>
+        <v>301</v>
       </c>
       <c r="W4" t="n">
-        <v>661.0625</v>
+        <v>823.15625</v>
       </c>
       <c r="X4" t="n">
-        <v>145.25</v>
+        <v>63.65625</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>124.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>34.34375</v>
+        <v>37.1875</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.75</v>
+        <v>11.375</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -11910,82 +12670,82 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>74.765625</v>
       </c>
       <c r="C5" t="n">
-        <v>39.609375</v>
+        <v>0.46875</v>
       </c>
       <c r="D5" t="n">
-        <v>2.109375</v>
+        <v>12.65625</v>
       </c>
       <c r="E5" t="n">
-        <v>25.078125</v>
+        <v>15.9375</v>
       </c>
       <c r="F5" t="n">
-        <v>281.953125</v>
+        <v>424.453125</v>
       </c>
       <c r="G5" t="n">
-        <v>783.75</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>334.21875</v>
+        <v>322.734375</v>
       </c>
       <c r="I5" t="n">
-        <v>288.28125</v>
+        <v>194.53125</v>
       </c>
       <c r="J5" t="n">
-        <v>152.109375</v>
+        <v>14.53125</v>
       </c>
       <c r="K5" t="n">
-        <v>238.359375</v>
+        <v>652.5</v>
       </c>
       <c r="L5" t="n">
-        <v>76.40625</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.1875</v>
+        <v>269.765625</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4.21875</v>
       </c>
       <c r="O5" t="n">
-        <v>744.375</v>
+        <v>361.171875</v>
       </c>
       <c r="P5" t="n">
-        <v>252.421875</v>
+        <v>564.84375</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.59375</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>473.4375</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>349.21875</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>34.921875</v>
       </c>
       <c r="U5" t="n">
-        <v>134.53125</v>
+        <v>150.703125</v>
       </c>
       <c r="V5" t="n">
-        <v>57.65625</v>
+        <v>417.890625</v>
       </c>
       <c r="W5" t="n">
-        <v>95.625</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>282.1875</v>
+        <v>93.28125</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.28125</v>
+        <v>142.265625</v>
       </c>
       <c r="Z5" t="n">
-        <v>143.4375</v>
+        <v>136.171875</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>56.953125</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -12062,82 +12822,82 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>61.515625</v>
       </c>
       <c r="C6" t="n">
-        <v>38.75</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5.0859375</v>
+        <v>33.90625</v>
       </c>
       <c r="E6" t="n">
-        <v>40.4453125</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>387.5</v>
+        <v>320.4140625</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>126.421875</v>
+        <v>317.5078125</v>
       </c>
       <c r="I6" t="n">
-        <v>347.0546875</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>59.8203125</v>
+        <v>185.2734375</v>
       </c>
       <c r="K6" t="n">
-        <v>308.546875</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4.1171875</v>
+        <v>43.109375</v>
       </c>
       <c r="M6" t="n">
-        <v>538.140625</v>
+        <v>200.046875</v>
       </c>
       <c r="N6" t="n">
-        <v>158.1484375</v>
+        <v>179.703125</v>
       </c>
       <c r="O6" t="n">
-        <v>938.234375</v>
+        <v>560.1796875</v>
       </c>
       <c r="P6" t="n">
-        <v>410.5078125</v>
+        <v>328.1640625</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>99.296875</v>
       </c>
       <c r="R6" t="n">
-        <v>263.015625</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>356.984375</v>
+        <v>612.4921875</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>72.8984375</v>
+        <v>7.9921875</v>
       </c>
       <c r="W6" t="n">
-        <v>604.984375</v>
+        <v>409.5390625</v>
       </c>
       <c r="X6" t="n">
-        <v>120.609375</v>
+        <v>301.5234375</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>78.953125</v>
+        <v>171.953125</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>2.6640625</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -12214,49 +12974,49 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>64.96875</v>
       </c>
       <c r="C7" t="n">
-        <v>132.64453125</v>
+        <v>15.75</v>
       </c>
       <c r="D7" t="n">
-        <v>4.67578125</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>54.38671875</v>
+        <v>49.21875</v>
       </c>
       <c r="F7" t="n">
-        <v>233.7890625</v>
+        <v>138.55078125</v>
       </c>
       <c r="G7" t="n">
-        <v>401.625</v>
+        <v>164.8828125</v>
       </c>
       <c r="H7" t="n">
-        <v>129.19921875</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>29.0390625</v>
+        <v>123.78515625</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>241.171875</v>
+        <v>169.8046875</v>
       </c>
       <c r="L7" t="n">
-        <v>93.26953125</v>
+        <v>332.2265625</v>
       </c>
       <c r="M7" t="n">
-        <v>407.0390625</v>
+        <v>477.9140625</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>341.0859375</v>
+        <v>275.87109375</v>
       </c>
       <c r="P7" t="n">
-        <v>128.4609375</v>
+        <v>1003.32421875</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -12265,31 +13025,31 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>126.4921875</v>
       </c>
       <c r="T7" t="n">
-        <v>437.5546875</v>
+        <v>741.97265625</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>262.828125</v>
       </c>
       <c r="V7" t="n">
-        <v>236.25</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>123.046875</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>144.2109375</v>
       </c>
       <c r="Z7" t="n">
-        <v>236.25</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>36.9140625</v>
+        <v>93.515625</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -12358,6 +13118,766 @@
         <v>0</v>
       </c>
       <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>69.701171875</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.28515625</v>
+      </c>
+      <c r="E8" t="n">
+        <v>47.12890625</v>
+      </c>
+      <c r="F8" t="n">
+        <v>40.431640625</v>
+      </c>
+      <c r="G8" t="n">
+        <v>150.31640625</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>311.546875</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>49.361328125</v>
+      </c>
+      <c r="M8" t="n">
+        <v>288.478515625</v>
+      </c>
+      <c r="N8" t="n">
+        <v>53.578125</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>91.033203125</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>22.572265625</v>
+      </c>
+      <c r="R8" t="n">
+        <v>407.29296875</v>
+      </c>
+      <c r="S8" t="n">
+        <v>149.32421875</v>
+      </c>
+      <c r="T8" t="n">
+        <v>271.36328125</v>
+      </c>
+      <c r="U8" t="n">
+        <v>144.115234375</v>
+      </c>
+      <c r="V8" t="n">
+        <v>31.005859375</v>
+      </c>
+      <c r="W8" t="n">
+        <v>566.04296875</v>
+      </c>
+      <c r="X8" t="n">
+        <v>171.896484375</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>162.71875</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>53.826171875</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>121.046875</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.92578125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>71.4697265625</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.2255859375</v>
+      </c>
+      <c r="I9" t="n">
+        <v>195.4833984375</v>
+      </c>
+      <c r="J9" t="n">
+        <v>222.626953125</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>178.0517578125</v>
+      </c>
+      <c r="N9" t="n">
+        <v>114.052734375</v>
+      </c>
+      <c r="O9" t="n">
+        <v>913.6669921875</v>
+      </c>
+      <c r="P9" t="n">
+        <v>192.744140625</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>107.080078125</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>15.9375</v>
+      </c>
+      <c r="U9" t="n">
+        <v>39.345703125</v>
+      </c>
+      <c r="V9" t="n">
+        <v>166.34765625</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1177.880859375</v>
+      </c>
+      <c r="X9" t="n">
+        <v>284.8828125</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>196.9775390625</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>150.1611328125</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12.2021484375</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25.94921875</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50.15185546875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.4619140625</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.4853515625</v>
+      </c>
+      <c r="F10" t="n">
+        <v>173.90966796875</v>
+      </c>
+      <c r="G10" t="n">
+        <v>817.64990234375</v>
+      </c>
+      <c r="H10" t="n">
+        <v>273.9638671875</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>151.2041015625</v>
+      </c>
+      <c r="K10" t="n">
+        <v>132.49072265625</v>
+      </c>
+      <c r="L10" t="n">
+        <v>206.84521484375</v>
+      </c>
+      <c r="M10" t="n">
+        <v>121.01318359375</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>291.67919921875</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>593.58837890625</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>812.65966796875</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>248.26416015625</v>
+      </c>
+      <c r="W10" t="n">
+        <v>377.26171875</v>
+      </c>
+      <c r="X10" t="n">
+        <v>320.12353515625</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>280.20166015625</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15.22021484375</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>44.45654296875</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.9697265625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>39.9609375</v>
+      </c>
+      <c r="E11" t="n">
+        <v>52.44873046875</v>
+      </c>
+      <c r="F11" t="n">
+        <v>308.19873046875</v>
+      </c>
+      <c r="G11" t="n">
+        <v>608.4052734375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>84.9169921875</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>256.7490234375</v>
+      </c>
+      <c r="N11" t="n">
+        <v>385.623046875</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>263.7421875</v>
+      </c>
+      <c r="R11" t="n">
+        <v>71.679931640625</v>
+      </c>
+      <c r="S11" t="n">
+        <v>246.509033203125</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>176.577392578125</v>
+      </c>
+      <c r="V11" t="n">
+        <v>16.234130859375</v>
+      </c>
+      <c r="W11" t="n">
+        <v>377.13134765625</v>
+      </c>
+      <c r="X11" t="n">
+        <v>144.8583984375</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.49853515625</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>167.086669921875</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>49.951171875</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>58.97119140625</v>
+      </c>
+      <c r="C12" t="n">
+        <v>52.97412109375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>27.986328125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>64.468505859375</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>391.5587158203125</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>286.6099853515625</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>186.90869140625</v>
+      </c>
+      <c r="M12" t="n">
+        <v>192.406005859375</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>71.2152099609375</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>184.409912109375</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>291.1077880859375</v>
+      </c>
+      <c r="V12" t="n">
+        <v>86.7076416015625</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>382.0633544921875</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>277.8642578125</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>95.953125</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>140.1815185546875</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12390,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>105433.38</v>
+        <v>291620</v>
       </c>
     </row>
     <row r="3">
@@ -12398,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>54946</v>
+        <v>291620</v>
       </c>
     </row>
     <row r="4">
@@ -12406,7 +13926,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3218821.6</v>
+        <v>1740690</v>
       </c>
     </row>
     <row r="5">
@@ -12414,7 +13934,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1355798</v>
+        <v>583240</v>
       </c>
     </row>
     <row r="6">
@@ -12422,7 +13942,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5182924</v>
+        <v>1749720</v>
       </c>
     </row>
   </sheetData>
@@ -12468,7 +13988,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -12490,7 +14010,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -12512,7 +14032,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.29</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -12534,7 +14054,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.31</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -12556,7 +14076,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -12578,7 +14098,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -12600,7 +14120,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.88</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -12622,7 +14142,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -12644,7 +14164,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.59</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -12666,7 +14186,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -12688,7 +14208,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.16</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -12710,7 +14230,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -12732,7 +14252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -12754,7 +14274,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -12776,7 +14296,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -12798,7 +14318,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.57</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -12820,7 +14340,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -12842,7 +14362,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -12864,7 +14384,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -12886,7 +14406,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.54</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -12908,7 +14428,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.51</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -12930,7 +14450,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -12952,7 +14472,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -12974,7 +14494,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -12996,7 +14516,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -13018,7 +14538,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -13049,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -13087,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -13140,7 +14660,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -13162,7 +14682,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -13184,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -13206,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -13228,7 +14748,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -13250,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -13269,7 +14789,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>37.5</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -13291,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>37.5</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -13310,7 +14830,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>26.33</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -13332,7 +14852,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -13354,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -13376,7 +14896,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -13398,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -13420,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -13442,7 +14962,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -13464,7 +14984,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -13486,7 +15006,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -13508,7 +15028,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -13530,7 +15050,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
